--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cthrc1-Ror2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cthrc1-Ror2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.393370215330148</v>
+        <v>0.6191033333333333</v>
       </c>
       <c r="H2">
-        <v>0.393370215330148</v>
+        <v>1.85731</v>
       </c>
       <c r="I2">
-        <v>0.005575393486675192</v>
+        <v>0.007929637811697733</v>
       </c>
       <c r="J2">
-        <v>0.005575393486675192</v>
+        <v>0.007962490129789305</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>5.16407524133985</v>
+        <v>0.047572</v>
       </c>
       <c r="N2">
-        <v>5.16407524133985</v>
+        <v>0.142716</v>
       </c>
       <c r="O2">
-        <v>0.7742334560778587</v>
+        <v>0.006780712238476238</v>
       </c>
       <c r="P2">
-        <v>0.7742334560778587</v>
+        <v>0.00730352994735907</v>
       </c>
       <c r="Q2">
-        <v>2.031393389666943</v>
+        <v>0.02945198377333334</v>
       </c>
       <c r="R2">
-        <v>2.031393389666943</v>
+        <v>0.26506785396</v>
       </c>
       <c r="S2">
-        <v>0.004316656168182517</v>
+        <v>5.376859215646276E-05</v>
       </c>
       <c r="T2">
-        <v>0.004316656168182517</v>
+        <v>5.81542851184672E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.393370215330148</v>
+        <v>0.6191033333333333</v>
       </c>
       <c r="H3">
-        <v>0.393370215330148</v>
+        <v>1.85731</v>
       </c>
       <c r="I3">
-        <v>0.005575393486675192</v>
+        <v>0.007929637811697733</v>
       </c>
       <c r="J3">
-        <v>0.005575393486675192</v>
+        <v>0.007962490129789305</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.50584479479527</v>
+        <v>5.461551666666666</v>
       </c>
       <c r="N3">
-        <v>1.50584479479527</v>
+        <v>16.384655</v>
       </c>
       <c r="O3">
-        <v>0.2257665439221413</v>
+        <v>0.7784665397132128</v>
       </c>
       <c r="P3">
-        <v>0.2257665439221413</v>
+        <v>0.8384891565742209</v>
       </c>
       <c r="Q3">
-        <v>0.5923544911823979</v>
+        <v>3.381264842005555</v>
       </c>
       <c r="R3">
-        <v>0.5923544911823979</v>
+        <v>30.43138357805</v>
       </c>
       <c r="S3">
-        <v>0.001258737318492675</v>
+        <v>0.006172957708451387</v>
       </c>
       <c r="T3">
-        <v>0.001258737318492675</v>
+        <v>0.006676461633157593</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>69.7065116272673</v>
+        <v>0.6191033333333333</v>
       </c>
       <c r="H4">
-        <v>69.7065116272673</v>
+        <v>1.85731</v>
       </c>
       <c r="I4">
-        <v>0.9879782854920413</v>
+        <v>0.007929637811697733</v>
       </c>
       <c r="J4">
-        <v>0.9879782854920413</v>
+        <v>0.007962490129789305</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.16407524133985</v>
+        <v>1.5066585</v>
       </c>
       <c r="N4">
-        <v>5.16407524133985</v>
+        <v>3.013317</v>
       </c>
       <c r="O4">
-        <v>0.7742334560778587</v>
+        <v>0.214752748048311</v>
       </c>
       <c r="P4">
-        <v>0.7742334560778587</v>
+        <v>0.15420731347842</v>
       </c>
       <c r="Q4">
-        <v>359.9696708545395</v>
+        <v>0.932777299545</v>
       </c>
       <c r="R4">
-        <v>359.9696708545395</v>
+        <v>5.59666379727</v>
       </c>
       <c r="S4">
-        <v>0.7649258425063804</v>
+        <v>0.001702911511089883</v>
       </c>
       <c r="T4">
-        <v>0.7649258425063804</v>
+        <v>0.001227874211513245</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>69.7065116272673</v>
+        <v>76.48912033333333</v>
       </c>
       <c r="H5">
-        <v>69.7065116272673</v>
+        <v>229.467361</v>
       </c>
       <c r="I5">
-        <v>0.9879782854920413</v>
+        <v>0.9796927073757713</v>
       </c>
       <c r="J5">
-        <v>0.9879782854920413</v>
+        <v>0.9837515530909214</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.50584479479527</v>
+        <v>0.047572</v>
       </c>
       <c r="N5">
-        <v>1.50584479479527</v>
+        <v>0.142716</v>
       </c>
       <c r="O5">
-        <v>0.2257665439221413</v>
+        <v>0.006780712238476238</v>
       </c>
       <c r="P5">
-        <v>0.2257665439221413</v>
+        <v>0.00730352994735907</v>
       </c>
       <c r="Q5">
-        <v>104.9671876972564</v>
+        <v>3.638740432497333</v>
       </c>
       <c r="R5">
-        <v>104.9671876972564</v>
+        <v>32.748663892476</v>
       </c>
       <c r="S5">
-        <v>0.2230524429856608</v>
+        <v>0.006643014330848813</v>
       </c>
       <c r="T5">
-        <v>0.2230524429856608</v>
+        <v>0.007184858928760541</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.454818246333632</v>
+        <v>76.48912033333333</v>
       </c>
       <c r="H6">
-        <v>0.454818246333632</v>
+        <v>229.467361</v>
       </c>
       <c r="I6">
-        <v>0.006446321021283539</v>
+        <v>0.9796927073757713</v>
       </c>
       <c r="J6">
-        <v>0.006446321021283539</v>
+        <v>0.9837515530909214</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.16407524133985</v>
+        <v>5.461551666666666</v>
       </c>
       <c r="N6">
-        <v>5.16407524133985</v>
+        <v>16.384655</v>
       </c>
       <c r="O6">
-        <v>0.7742334560778587</v>
+        <v>0.7784665397132128</v>
       </c>
       <c r="P6">
-        <v>0.7742334560778587</v>
+        <v>0.8384891565742209</v>
       </c>
       <c r="Q6">
-        <v>2.348715645201118</v>
+        <v>417.7492826383838</v>
       </c>
       <c r="R6">
-        <v>2.348715645201118</v>
+        <v>3759.743543745454</v>
       </c>
       <c r="S6">
-        <v>0.004990957403295706</v>
+        <v>0.7626579918930858</v>
       </c>
       <c r="T6">
-        <v>0.004990957403295706</v>
+        <v>0.8248650100297865</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.454818246333632</v>
+        <v>76.48912033333333</v>
       </c>
       <c r="H7">
-        <v>0.454818246333632</v>
+        <v>229.467361</v>
       </c>
       <c r="I7">
-        <v>0.006446321021283539</v>
+        <v>0.9796927073757713</v>
       </c>
       <c r="J7">
-        <v>0.006446321021283539</v>
+        <v>0.9837515530909214</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.50584479479527</v>
+        <v>1.5066585</v>
       </c>
       <c r="N7">
-        <v>1.50584479479527</v>
+        <v>3.013317</v>
       </c>
       <c r="O7">
-        <v>0.2257665439221413</v>
+        <v>0.214752748048311</v>
       </c>
       <c r="P7">
-        <v>0.2257665439221413</v>
+        <v>0.15420731347842</v>
       </c>
       <c r="Q7">
-        <v>0.6848856888194126</v>
+        <v>115.2429833077395</v>
       </c>
       <c r="R7">
-        <v>0.6848856888194126</v>
+        <v>691.4578998464369</v>
       </c>
       <c r="S7">
-        <v>0.001455363617987833</v>
+        <v>0.2103917011518367</v>
       </c>
       <c r="T7">
-        <v>0.001455363617987833</v>
+        <v>0.1517016841323743</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.9663805</v>
+      </c>
+      <c r="H8">
+        <v>1.932761</v>
+      </c>
+      <c r="I8">
+        <v>0.01237765481253107</v>
+      </c>
+      <c r="J8">
+        <v>0.008285956779289245</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.047572</v>
+      </c>
+      <c r="N8">
+        <v>0.142716</v>
+      </c>
+      <c r="O8">
+        <v>0.006780712238476238</v>
+      </c>
+      <c r="P8">
+        <v>0.00730352994735907</v>
+      </c>
+      <c r="Q8">
+        <v>0.045972653146</v>
+      </c>
+      <c r="R8">
+        <v>0.275835918876</v>
+      </c>
+      <c r="S8">
+        <v>8.392931547096374E-05</v>
+      </c>
+      <c r="T8">
+        <v>6.051673348006191E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.9663805</v>
+      </c>
+      <c r="H9">
+        <v>1.932761</v>
+      </c>
+      <c r="I9">
+        <v>0.01237765481253107</v>
+      </c>
+      <c r="J9">
+        <v>0.008285956779289245</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5.461551666666666</v>
+      </c>
+      <c r="N9">
+        <v>16.384655</v>
+      </c>
+      <c r="O9">
+        <v>0.7784665397132128</v>
+      </c>
+      <c r="P9">
+        <v>0.8384891565742209</v>
+      </c>
+      <c r="Q9">
+        <v>5.277937030409166</v>
+      </c>
+      <c r="R9">
+        <v>31.66762218245499</v>
+      </c>
+      <c r="S9">
+        <v>0.009635590111675658</v>
+      </c>
+      <c r="T9">
+        <v>0.006947684911276686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.9663805</v>
+      </c>
+      <c r="H10">
+        <v>1.932761</v>
+      </c>
+      <c r="I10">
+        <v>0.01237765481253107</v>
+      </c>
+      <c r="J10">
+        <v>0.008285956779289245</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.5066585</v>
+      </c>
+      <c r="N10">
+        <v>3.013317</v>
+      </c>
+      <c r="O10">
+        <v>0.214752748048311</v>
+      </c>
+      <c r="P10">
+        <v>0.15420731347842</v>
+      </c>
+      <c r="Q10">
+        <v>1.45600539455925</v>
+      </c>
+      <c r="R10">
+        <v>5.824021578237</v>
+      </c>
+      <c r="S10">
+        <v>0.002658135385384449</v>
+      </c>
+      <c r="T10">
+        <v>0.001277755134532496</v>
       </c>
     </row>
   </sheetData>
